--- a/ReadFromExcelFIle/ReadFromExcelFIle/Spring_Football_2023.xlsx
+++ b/ReadFromExcelFIle/ReadFromExcelFIle/Spring_Football_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsmith/Desktop/Whitworth_Stuff/Spring 2023/CS 472/whitworth-football/ReadFromExcelFIle/ReadFromExcelFIle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7D34A-DA40-F54B-9218-75594E543329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80E737-3B35-8146-A17E-FEC2861E11AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32380" windowHeight="19320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7154,11 +7154,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7176,15 +7200,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7196,46 +7214,28 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10067,72 +10067,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="142"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="88"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="142"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="142"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
       <c r="H4" s="90"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="142"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="142"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="92"/>
       <c r="D5" s="93"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="142"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="152"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -10150,10 +10150,10 @@
       <c r="E6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="158"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="96" t="s">
         <v>332</v>
       </c>
@@ -10171,17 +10171,17 @@
       <c r="B7" s="100">
         <v>1</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
-      <c r="I7" s="144"/>
+      <c r="I7" s="156"/>
       <c r="J7" s="100">
         <v>1</v>
       </c>
@@ -10193,13 +10193,13 @@
       <c r="B8" s="100">
         <v>2</v>
       </c>
-      <c r="C8" s="161"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="174"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
       <c r="J8" s="100">
         <v>2</v>
       </c>
@@ -10211,13 +10211,13 @@
       <c r="B9" s="100">
         <v>3</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="175" t="s">
         <v>346</v>
       </c>
       <c r="F9" s="134"/>
@@ -10237,14 +10237,14 @@
       <c r="B10" s="100">
         <v>4</v>
       </c>
-      <c r="C10" s="161"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
       <c r="I10" s="102" t="s">
         <v>427</v>
       </c>
@@ -10262,13 +10262,13 @@
       <c r="C11" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="160" t="s">
         <v>429</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
       <c r="I11" s="102" t="s">
         <v>430</v>
       </c>
@@ -10283,17 +10283,17 @@
       <c r="B12" s="100">
         <v>6</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="160" t="s">
         <v>402</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="148" t="s">
+      <c r="E12" s="162"/>
+      <c r="F12" s="160" t="s">
         <v>431</v>
       </c>
-      <c r="G12" s="150"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="102" t="s">
         <v>432</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="B13" s="100">
         <v>7</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="182" t="s">
         <v>434</v>
       </c>
@@ -10324,10 +10324,10 @@
       <c r="G13" s="102" t="s">
         <v>437</v>
       </c>
-      <c r="H13" s="148" t="s">
+      <c r="H13" s="160" t="s">
         <v>438</v>
       </c>
-      <c r="I13" s="150"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="100">
         <v>7</v>
       </c>
@@ -10339,19 +10339,19 @@
       <c r="B14" s="100">
         <v>8</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="147"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="102" t="s">
         <v>439</v>
       </c>
-      <c r="F14" s="161"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="160" t="s">
         <v>441</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="100">
         <v>8</v>
       </c>
@@ -10363,17 +10363,17 @@
       <c r="B15" s="100">
         <v>9</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="177" t="s">
         <v>412</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
-      <c r="I15" s="144"/>
+      <c r="I15" s="156"/>
       <c r="J15" s="100">
         <v>9</v>
       </c>
@@ -10385,13 +10385,13 @@
       <c r="B16" s="100">
         <v>10</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="174"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="100">
         <v>10</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="B17" s="100">
         <v>11</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="167" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="176" t="s">
@@ -10412,7 +10412,7 @@
       <c r="E17" s="173"/>
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
-      <c r="H17" s="144"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="102" t="s">
         <v>442</v>
       </c>
@@ -10427,12 +10427,12 @@
       <c r="B18" s="100">
         <v>12</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="168"/>
       <c r="D18" s="174"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="183" t="s">
         <v>433</v>
       </c>
@@ -10447,21 +10447,21 @@
       <c r="B19" s="100">
         <v>13</v>
       </c>
-      <c r="C19" s="160"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="102" t="s">
         <v>443</v>
       </c>
       <c r="E19" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="148" t="s">
+      <c r="F19" s="160" t="s">
         <v>445</v>
       </c>
-      <c r="G19" s="150"/>
+      <c r="G19" s="162"/>
       <c r="H19" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="I19" s="161"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="100">
         <v>13</v>
       </c>
@@ -10473,19 +10473,19 @@
       <c r="B20" s="100">
         <v>14</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="148" t="s">
+      <c r="C20" s="169"/>
+      <c r="D20" s="160" t="s">
         <v>447</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="148" t="s">
+      <c r="E20" s="162"/>
+      <c r="F20" s="160" t="s">
         <v>448</v>
       </c>
-      <c r="G20" s="150"/>
-      <c r="H20" s="148" t="s">
+      <c r="G20" s="162"/>
+      <c r="H20" s="160" t="s">
         <v>447</v>
       </c>
-      <c r="I20" s="150"/>
+      <c r="I20" s="162"/>
       <c r="J20" s="100">
         <v>14</v>
       </c>
@@ -10497,7 +10497,7 @@
       <c r="B21" s="100">
         <v>15</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="167" t="s">
         <v>363</v>
       </c>
       <c r="D21" s="176" t="s">
@@ -10507,7 +10507,7 @@
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
-      <c r="I21" s="144"/>
+      <c r="I21" s="156"/>
       <c r="J21" s="100">
         <v>15</v>
       </c>
@@ -10519,13 +10519,13 @@
       <c r="B22" s="100">
         <v>16</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="174"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
       <c r="J22" s="100">
         <v>16</v>
       </c>
@@ -10537,16 +10537,16 @@
       <c r="B23" s="100">
         <v>17</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="172" t="s">
+      <c r="D23" s="177" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="102" t="s">
         <v>449</v>
       </c>
@@ -10561,12 +10561,12 @@
       <c r="B24" s="100">
         <v>18</v>
       </c>
-      <c r="C24" s="161"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="174"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="102" t="s">
         <v>375</v>
       </c>
@@ -10581,17 +10581,17 @@
       <c r="B25" s="100">
         <v>19</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="172" t="s">
+      <c r="D25" s="177" t="s">
         <v>422</v>
       </c>
       <c r="E25" s="173"/>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
-      <c r="I25" s="144"/>
+      <c r="I25" s="156"/>
       <c r="J25" s="100">
         <v>19</v>
       </c>
@@ -10603,13 +10603,13 @@
       <c r="B26" s="100">
         <v>20</v>
       </c>
-      <c r="C26" s="161"/>
+      <c r="C26" s="169"/>
       <c r="D26" s="174"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="100">
         <v>20</v>
       </c>
@@ -10624,43 +10624,43 @@
       <c r="C27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="162"/>
       <c r="J27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="158"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="142"/>
     </row>
     <row r="29" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11638,16 +11638,17 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:I8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="A28:J29"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
@@ -11664,17 +11665,16 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D25:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:I8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11700,53 +11700,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -11754,23 +11754,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -11794,7 +11794,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -11815,17 +11815,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -11840,13 +11840,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -11864,13 +11864,13 @@
       <c r="D9" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="160" t="s">
         <v>453</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
       <c r="J9" s="102" t="s">
         <v>353</v>
       </c>
@@ -11888,17 +11888,17 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="167" t="s">
         <v>454</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="177" t="s">
         <v>455</v>
       </c>
       <c r="F10" s="173"/>
       <c r="G10" s="173"/>
       <c r="H10" s="173"/>
       <c r="I10" s="173"/>
-      <c r="J10" s="144"/>
+      <c r="J10" s="156"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
@@ -11913,13 +11913,13 @@
       <c r="C11" s="100">
         <v>5</v>
       </c>
-      <c r="D11" s="160"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="174"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -11934,17 +11934,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="148" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="160" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="150"/>
+      <c r="H12" s="162"/>
       <c r="I12" s="102" t="s">
         <v>457</v>
       </c>
@@ -11965,17 +11965,17 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="102" t="s">
         <v>437</v>
       </c>
       <c r="F13" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="G13" s="160" t="s">
         <v>459</v>
       </c>
-      <c r="H13" s="150"/>
+      <c r="H13" s="162"/>
       <c r="I13" s="102" t="s">
         <v>430</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="160"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="102" t="s">
         <v>460</v>
       </c>
@@ -12041,8 +12041,8 @@
       <c r="G15" s="184" t="s">
         <v>464</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="102" t="s">
         <v>380</v>
       </c>
@@ -12060,7 +12060,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E16" s="183" t="s">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
-      <c r="I16" s="144"/>
+      <c r="I16" s="156"/>
       <c r="J16" s="102" t="s">
         <v>382</v>
       </c>
@@ -12089,12 +12089,12 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
       <c r="F17" s="174"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="102" t="s">
         <v>466</v>
       </c>
@@ -12118,11 +12118,11 @@
       <c r="E18" s="184" t="s">
         <v>467</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -12137,17 +12137,17 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="167" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="177" t="s">
         <v>469</v>
       </c>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="I19" s="173"/>
-      <c r="J19" s="144"/>
+      <c r="J19" s="156"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -12162,13 +12162,13 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="174"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -12186,45 +12186,45 @@
       <c r="D21" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="162"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="158"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
     </row>
     <row r="23" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12232,7 +12232,7 @@
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="178"/>
+      <c r="E29" s="175"/>
       <c r="F29" s="134"/>
       <c r="G29" s="134"/>
       <c r="H29" s="134"/>
@@ -12245,22 +12245,22 @@
       <c r="G30" s="134"/>
       <c r="H30" s="134"/>
       <c r="I30" s="134"/>
-      <c r="J30" s="178"/>
+      <c r="J30" s="175"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
-      <c r="G31" s="178"/>
+      <c r="G31" s="175"/>
       <c r="H31" s="134"/>
       <c r="I31" s="106"/>
       <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="178"/>
+      <c r="E32" s="175"/>
       <c r="F32" s="134"/>
-      <c r="G32" s="178"/>
+      <c r="G32" s="175"/>
       <c r="H32" s="134"/>
-      <c r="I32" s="178"/>
+      <c r="I32" s="175"/>
       <c r="J32" s="134"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12270,19 +12270,19 @@
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="178"/>
+      <c r="E39" s="175"/>
       <c r="F39" s="134"/>
-      <c r="G39" s="178"/>
+      <c r="G39" s="175"/>
       <c r="H39" s="134"/>
       <c r="I39" s="106"/>
       <c r="J39" s="106"/>
     </row>
     <row r="40" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="178"/>
+      <c r="E40" s="175"/>
       <c r="F40" s="106"/>
-      <c r="G40" s="178"/>
+      <c r="G40" s="175"/>
       <c r="H40" s="106"/>
-      <c r="I40" s="178"/>
+      <c r="I40" s="175"/>
       <c r="J40" s="134"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12290,7 +12290,7 @@
       <c r="F41" s="106"/>
       <c r="G41" s="134"/>
       <c r="H41" s="106"/>
-      <c r="I41" s="178"/>
+      <c r="I41" s="175"/>
       <c r="J41" s="134"/>
     </row>
     <row r="42" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13248,16 +13248,26 @@
     <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E29:I30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:J20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
@@ -13266,26 +13276,16 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:J11"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E29:I30"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13311,53 +13311,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -13365,23 +13365,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -13402,10 +13402,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -13426,17 +13426,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -13451,13 +13451,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>472</v>
       </c>
@@ -13501,14 +13501,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>437</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>472</v>
       </c>
@@ -13529,13 +13529,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="102" t="s">
         <v>472</v>
       </c>
@@ -13553,17 +13553,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="150"/>
+      <c r="F12" s="162"/>
       <c r="G12" s="186" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="147"/>
+      <c r="H12" s="159"/>
       <c r="I12" s="107" t="s">
         <v>474</v>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="110" t="s">
         <v>140</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="167" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -13626,7 +13626,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="144"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="107" t="s">
         <v>472</v>
       </c>
@@ -13644,12 +13644,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
       <c r="J15" s="107" t="s">
         <v>472</v>
       </c>
@@ -13667,7 +13667,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -13677,7 +13677,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="144"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -13692,13 +13692,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -13713,17 +13713,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -13738,13 +13738,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="183" t="s">
@@ -13771,7 +13771,7 @@
       <c r="G20" s="186" t="s">
         <v>483</v>
       </c>
-      <c r="H20" s="147"/>
+      <c r="H20" s="159"/>
       <c r="I20" s="107" t="s">
         <v>484</v>
       </c>
@@ -13792,15 +13792,15 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
       <c r="F21" s="107" t="s">
         <v>486</v>
       </c>
       <c r="G21" s="186" t="s">
         <v>487</v>
       </c>
-      <c r="H21" s="147"/>
+      <c r="H21" s="159"/>
       <c r="I21" s="107" t="s">
         <v>488</v>
       </c>
@@ -13821,16 +13821,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="144"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="107" t="s">
         <v>449</v>
       </c>
@@ -13848,12 +13848,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -13871,17 +13871,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="177" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -13896,13 +13896,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -13920,45 +13920,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14933,11 +14933,22 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:J19"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="E12:F12"/>
@@ -14949,22 +14960,11 @@
     <mergeCell ref="F9:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14990,53 +14990,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>491</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -15044,23 +15044,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -15081,10 +15081,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -15105,17 +15105,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -15130,13 +15130,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>492</v>
       </c>
@@ -15180,14 +15180,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>493</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>492</v>
       </c>
@@ -15208,13 +15208,13 @@
       <c r="D11" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="102" t="s">
         <v>495</v>
       </c>
@@ -15232,17 +15232,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -15257,19 +15257,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="148" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="160" t="s">
         <v>497</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="148" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="160" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="148" t="s">
+      <c r="H13" s="162"/>
+      <c r="I13" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -15284,7 +15284,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="167" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -15293,7 +15293,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="144"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="102" t="s">
         <v>498</v>
       </c>
@@ -15311,12 +15311,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
       <c r="J15" s="102" t="s">
         <v>499</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -15344,7 +15344,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="144"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -15359,13 +15359,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -15380,17 +15380,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -15405,13 +15405,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -15435,10 +15435,10 @@
       <c r="F20" s="102" t="s">
         <v>500</v>
       </c>
-      <c r="G20" s="148" t="s">
+      <c r="G20" s="160" t="s">
         <v>501</v>
       </c>
-      <c r="H20" s="150"/>
+      <c r="H20" s="162"/>
       <c r="I20" s="102" t="s">
         <v>350</v>
       </c>
@@ -15459,17 +15459,17 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="102" t="s">
         <v>502</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>503</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="160" t="s">
         <v>504</v>
       </c>
-      <c r="H21" s="150"/>
+      <c r="H21" s="162"/>
       <c r="I21" s="102" t="s">
         <v>350</v>
       </c>
@@ -15490,16 +15490,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="144"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -15517,12 +15517,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -15540,17 +15540,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="177" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -15565,13 +15565,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -15589,45 +15589,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16603,23 +16603,6 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="E24:J25"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="D12:D13"/>
@@ -16636,6 +16619,23 @@
     <mergeCell ref="E18:J19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16661,53 +16661,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -16715,23 +16715,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -16752,10 +16752,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -16776,17 +16776,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -16801,13 +16801,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>510</v>
       </c>
@@ -16851,14 +16851,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>511</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>510</v>
       </c>
@@ -16879,13 +16879,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>512</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="102" t="s">
         <v>390</v>
       </c>
@@ -16903,17 +16903,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -16928,15 +16928,15 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="148" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="160" t="s">
         <v>456</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="148" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="160" t="s">
         <v>513</v>
       </c>
-      <c r="H13" s="150"/>
+      <c r="H13" s="162"/>
       <c r="I13" s="102" t="s">
         <v>514</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="167" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="102" t="s">
@@ -16966,10 +16966,10 @@
       <c r="F14" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="160" t="s">
         <v>517</v>
       </c>
-      <c r="H14" s="150"/>
+      <c r="H14" s="162"/>
       <c r="I14" s="102" t="s">
         <v>518</v>
       </c>
@@ -16990,18 +16990,18 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="161"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="112" t="s">
         <v>519</v>
       </c>
       <c r="F15" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="G15" s="148" t="s">
+      <c r="G15" s="160" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="115" t="s">
         <v>520</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="114" t="s">
@@ -17031,7 +17031,7 @@
       <c r="G16" s="184" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="150"/>
+      <c r="H16" s="162"/>
       <c r="I16" s="114" t="s">
         <v>522</v>
       </c>
@@ -17052,14 +17052,14 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="184" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="102" t="s">
         <v>526</v>
       </c>
@@ -17077,17 +17077,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>527</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -17102,13 +17102,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -17123,7 +17123,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -17158,7 +17158,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="102" t="s">
         <v>532</v>
       </c>
@@ -17191,17 +17191,17 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>537</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="I22" s="173"/>
-      <c r="J22" s="144"/>
+      <c r="J22" s="156"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -17216,15 +17216,15 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="160"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="184" t="s">
         <v>538</v>
       </c>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
       <c r="K23" s="100">
         <v>17</v>
       </c>
@@ -17239,15 +17239,15 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="172" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="177" t="s">
         <v>539</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -17262,15 +17262,15 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -17288,45 +17288,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18301,29 +18301,6 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
@@ -18334,6 +18311,29 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18359,53 +18359,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -18413,23 +18413,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -18450,10 +18450,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -18474,17 +18474,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -18499,13 +18499,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -18520,7 +18520,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>441</v>
       </c>
@@ -18549,14 +18549,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>543</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>510</v>
       </c>
@@ -18577,13 +18577,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>544</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="102" t="s">
         <v>510</v>
       </c>
@@ -18601,21 +18601,21 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="148" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="160" t="s">
         <v>513</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="148" t="s">
+      <c r="H12" s="162"/>
+      <c r="I12" s="160" t="s">
         <v>438</v>
       </c>
-      <c r="J12" s="150"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -18630,7 +18630,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="102" t="s">
         <v>460</v>
       </c>
@@ -18643,10 +18643,10 @@
       <c r="H13" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -18661,7 +18661,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="160"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="102" t="s">
         <v>532</v>
       </c>
@@ -18671,10 +18671,10 @@
       <c r="G14" s="102" t="s">
         <v>532</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="160" t="s">
         <v>545</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="102" t="s">
         <v>516</v>
       </c>
@@ -18695,13 +18695,13 @@
       <c r="D15" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="102" t="s">
         <v>350</v>
       </c>
@@ -18719,7 +18719,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -18729,7 +18729,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="144"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -18744,13 +18744,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -18765,17 +18765,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -18790,13 +18790,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="112" t="s">
@@ -18820,14 +18820,14 @@
       <c r="F20" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="G20" s="148" t="s">
+      <c r="G20" s="160" t="s">
         <v>547</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="148" t="s">
+      <c r="H20" s="162"/>
+      <c r="I20" s="160" t="s">
         <v>548</v>
       </c>
-      <c r="J20" s="150"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -18842,21 +18842,21 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="112" t="s">
         <v>549</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="160" t="s">
         <v>550</v>
       </c>
-      <c r="H21" s="150"/>
-      <c r="I21" s="148" t="s">
+      <c r="H21" s="162"/>
+      <c r="I21" s="160" t="s">
         <v>548</v>
       </c>
-      <c r="J21" s="150"/>
+      <c r="J21" s="162"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -18871,16 +18871,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="144"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -18898,12 +18898,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -18921,17 +18921,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="177" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -18946,13 +18946,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -18970,45 +18970,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19984,25 +19984,6 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="D12:D14"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:J25"/>
     <mergeCell ref="E26:J26"/>
@@ -20019,6 +20000,25 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20044,53 +20044,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -20098,23 +20098,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -20135,10 +20135,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -20159,17 +20159,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -20184,13 +20184,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -20205,7 +20205,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>553</v>
       </c>
@@ -20234,14 +20234,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>554</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>555</v>
       </c>
@@ -20262,13 +20262,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="102" t="s">
         <v>557</v>
       </c>
@@ -20286,21 +20286,21 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>558</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="148" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="160" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="148" t="s">
+      <c r="H12" s="162"/>
+      <c r="I12" s="160" t="s">
         <v>559</v>
       </c>
-      <c r="J12" s="150"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -20315,7 +20315,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="102" t="s">
         <v>560</v>
       </c>
@@ -20328,10 +20328,10 @@
       <c r="H13" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="160" t="s">
         <v>563</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="167" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -20355,7 +20355,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="144"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="102" t="s">
         <v>390</v>
       </c>
@@ -20373,12 +20373,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="160"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
       <c r="J15" s="102" t="s">
         <v>564</v>
       </c>
@@ -20396,7 +20396,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -20406,7 +20406,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="144"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -20421,13 +20421,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -20442,17 +20442,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -20467,13 +20467,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -20503,10 +20503,10 @@
       <c r="H20" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="I20" s="148" t="s">
+      <c r="I20" s="160" t="s">
         <v>438</v>
       </c>
-      <c r="J20" s="150"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -20521,21 +20521,21 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="102" t="s">
         <v>568</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="160" t="s">
         <v>570</v>
       </c>
-      <c r="H21" s="150"/>
-      <c r="I21" s="148" t="s">
+      <c r="H21" s="162"/>
+      <c r="I21" s="160" t="s">
         <v>571</v>
       </c>
-      <c r="J21" s="150"/>
+      <c r="J21" s="162"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -20550,16 +20550,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="144"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -20577,12 +20577,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -20600,17 +20600,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="177" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -20625,13 +20625,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -20649,45 +20649,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21663,24 +21663,6 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="D12:D13"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:J25"/>
     <mergeCell ref="E26:J26"/>
@@ -21697,6 +21679,24 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:I23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21722,53 +21722,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -21776,23 +21776,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -21813,10 +21813,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -21837,17 +21837,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -21862,13 +21862,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -21883,7 +21883,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -21894,7 +21894,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="144"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="102" t="s">
         <v>574</v>
       </c>
@@ -21912,14 +21912,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="102" t="s">
         <v>575</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="102" t="s">
         <v>576</v>
       </c>
@@ -21940,13 +21940,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>577</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="102" t="s">
         <v>578</v>
       </c>
@@ -21964,16 +21964,16 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
       <c r="J12" s="102" t="s">
         <v>579</v>
       </c>
@@ -21991,19 +21991,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="148" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="160" t="s">
         <v>456</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="148" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="160" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="148" t="s">
+      <c r="H13" s="162"/>
+      <c r="I13" s="160" t="s">
         <v>580</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -22018,7 +22018,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="167" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="102" t="s">
@@ -22027,10 +22027,10 @@
       <c r="F14" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="160" t="s">
         <v>581</v>
       </c>
-      <c r="H14" s="150"/>
+      <c r="H14" s="162"/>
       <c r="I14" s="102" t="s">
         <v>350</v>
       </c>
@@ -22051,16 +22051,16 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="172" t="s">
+      <c r="D15" s="169"/>
+      <c r="E15" s="177" t="s">
         <v>520</v>
       </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="148" t="s">
+      <c r="F15" s="156"/>
+      <c r="G15" s="160" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="115" t="s">
         <v>520</v>
       </c>
@@ -22078,7 +22078,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="114" t="s">
@@ -22090,8 +22090,8 @@
       <c r="G16" s="184" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="102" t="s">
         <v>506</v>
       </c>
@@ -22109,14 +22109,14 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="184" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="102" t="s">
         <v>375</v>
       </c>
@@ -22134,17 +22134,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="159" t="s">
+      <c r="D18" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="177" t="s">
         <v>527</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="156"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -22159,13 +22159,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -22180,7 +22180,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -22195,10 +22195,10 @@
       <c r="H20" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="148" t="s">
+      <c r="I20" s="160" t="s">
         <v>430</v>
       </c>
-      <c r="J20" s="150"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -22213,7 +22213,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="168"/>
       <c r="E21" s="102" t="s">
         <v>585</v>
       </c>
@@ -22226,10 +22226,10 @@
       <c r="H21" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="I21" s="148" t="s">
+      <c r="I21" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="J21" s="150"/>
+      <c r="J21" s="162"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -22244,17 +22244,17 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="177" t="s">
         <v>537</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="I22" s="173"/>
-      <c r="J22" s="144"/>
+      <c r="J22" s="156"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -22269,15 +22269,15 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="160"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="184" t="s">
         <v>538</v>
       </c>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
       <c r="K23" s="100">
         <v>17</v>
       </c>
@@ -22292,15 +22292,15 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="172" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="177" t="s">
         <v>539</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="144"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -22315,15 +22315,15 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -22341,45 +22341,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="158"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23355,27 +23355,6 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="E17:I17"/>
@@ -23392,6 +23371,27 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:J22"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23414,53 +23414,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -23468,23 +23468,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -23508,7 +23508,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -23535,11 +23535,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="158"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -23555,12 +23555,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -23902,32 +23902,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="158"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="153"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24938,53 +24938,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>590</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -24992,23 +24992,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -25032,7 +25032,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -25059,11 +25059,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="158"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -25079,12 +25079,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -25426,32 +25426,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="158"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="153"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26454,8 +26454,8 @@
   </sheetPr>
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26816,7 +26816,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>107</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="31" t="s">
         <v>108</v>
@@ -26866,7 +26866,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>112</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="34" t="s">
         <v>113</v>
@@ -28181,53 +28181,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>591</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>592</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -28235,23 +28235,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -28275,7 +28275,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -28302,11 +28302,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="158"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -28322,12 +28322,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -28669,32 +28669,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="158"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="153"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29705,53 +29705,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -29759,23 +29759,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -29799,7 +29799,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -29826,11 +29826,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="158"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -29846,12 +29846,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -30193,32 +30193,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="158"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="153"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31221,8 +31221,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36284,26 +36284,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -36314,25 +36314,25 @@
       <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="155"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -36340,23 +36340,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
@@ -36377,10 +36377,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -36401,23 +36401,23 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="170" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="171" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="163" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="171" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="163" t="s">
+      <c r="J7" s="171" t="s">
         <v>336</v>
       </c>
       <c r="K7" s="100">
@@ -36434,13 +36434,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="147"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="159"/>
       <c r="G8" s="134"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -36455,13 +36455,13 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="159"/>
       <c r="I9" s="102" t="s">
         <v>335</v>
       </c>
@@ -36485,20 +36485,20 @@
       <c r="D10" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="160" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="163" t="s">
         <v>340</v>
       </c>
       <c r="B11" s="134"/>
@@ -36510,20 +36510,20 @@
       <c r="H11" s="134"/>
       <c r="I11" s="134"/>
       <c r="J11" s="134"/>
-      <c r="K11" s="152"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="153"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37501,12 +37501,6 @@
     <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="E10:J10"/>
@@ -37518,6 +37512,12 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -37543,24 +37543,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -37571,18 +37571,18 @@
       <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="145" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="155"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="88"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="155"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105" t="s">
@@ -37595,22 +37595,22 @@
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
       <c r="H4" s="90"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="142"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="142"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="92"/>
       <c r="D5" s="93"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="142"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="152"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
@@ -37628,10 +37628,10 @@
       <c r="E6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="158"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="96" t="s">
         <v>332</v>
       </c>
@@ -37649,17 +37649,17 @@
       <c r="B7" s="100">
         <v>1</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
-      <c r="I7" s="144"/>
+      <c r="I7" s="156"/>
       <c r="J7" s="100">
         <v>1</v>
       </c>
@@ -37671,13 +37671,13 @@
       <c r="B8" s="100">
         <v>2</v>
       </c>
-      <c r="C8" s="161"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="174"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
       <c r="J8" s="100">
         <v>2</v>
       </c>
@@ -37689,18 +37689,18 @@
       <c r="B9" s="100">
         <v>3</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="175" t="s">
         <v>346</v>
       </c>
       <c r="F9" s="134"/>
       <c r="G9" s="134"/>
-      <c r="H9" s="145"/>
+      <c r="H9" s="157"/>
       <c r="I9" s="107" t="s">
         <v>348</v>
       </c>
@@ -37715,14 +37715,14 @@
       <c r="B10" s="100">
         <v>4</v>
       </c>
-      <c r="C10" s="161"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="107" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="107" t="s">
         <v>348</v>
       </c>
@@ -37740,14 +37740,14 @@
       <c r="C11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="100">
         <v>5</v>
       </c>
@@ -37759,21 +37759,21 @@
       <c r="B12" s="100">
         <v>6</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="148" t="s">
+      <c r="E12" s="162"/>
+      <c r="F12" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="150"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="176" t="s">
         <v>353</v>
       </c>
-      <c r="I12" s="144"/>
+      <c r="I12" s="156"/>
       <c r="J12" s="100">
         <v>6</v>
       </c>
@@ -37785,19 +37785,19 @@
       <c r="B13" s="100">
         <v>7</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="102" t="s">
         <v>354</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="F13" s="148" t="s">
+      <c r="F13" s="160" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="150"/>
+      <c r="G13" s="162"/>
       <c r="H13" s="174"/>
-      <c r="I13" s="147"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="100">
         <v>7</v>
       </c>
@@ -37809,21 +37809,21 @@
       <c r="B14" s="100">
         <v>8</v>
       </c>
-      <c r="C14" s="160"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="102" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="160" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="150"/>
-      <c r="H14" s="148" t="s">
+      <c r="G14" s="162"/>
+      <c r="H14" s="160" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="100">
         <v>8</v>
       </c>
@@ -37835,14 +37835,14 @@
       <c r="B15" s="100">
         <v>9</v>
       </c>
-      <c r="C15" s="160"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="176" t="s">
         <v>360</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
-      <c r="H15" s="144"/>
+      <c r="H15" s="156"/>
       <c r="I15" s="102" t="s">
         <v>361</v>
       </c>
@@ -37857,12 +37857,12 @@
       <c r="B16" s="100">
         <v>10</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="174"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
       <c r="I16" s="102" t="s">
         <v>362</v>
       </c>
@@ -37877,7 +37877,7 @@
       <c r="B17" s="100">
         <v>11</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="167" t="s">
         <v>363</v>
       </c>
       <c r="D17" s="176" t="s">
@@ -37887,7 +37887,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="144"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="100">
         <v>11</v>
       </c>
@@ -37899,13 +37899,13 @@
       <c r="B18" s="100">
         <v>12</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="174"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="100">
         <v>12</v>
       </c>
@@ -37917,7 +37917,7 @@
       <c r="B19" s="100">
         <v>13</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="167" t="s">
         <v>350</v>
       </c>
       <c r="D19" s="102" t="s">
@@ -37926,10 +37926,10 @@
       <c r="E19" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="F19" s="148" t="s">
+      <c r="F19" s="160" t="s">
         <v>367</v>
       </c>
-      <c r="G19" s="150"/>
+      <c r="G19" s="162"/>
       <c r="H19" s="102" t="s">
         <v>94</v>
       </c>
@@ -37947,19 +37947,19 @@
       <c r="B20" s="100">
         <v>14</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="148" t="s">
+      <c r="C20" s="169"/>
+      <c r="D20" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="148" t="s">
+      <c r="E20" s="162"/>
+      <c r="F20" s="160" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="150"/>
-      <c r="H20" s="148" t="s">
+      <c r="G20" s="162"/>
+      <c r="H20" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="I20" s="150"/>
+      <c r="I20" s="162"/>
       <c r="J20" s="100">
         <v>14</v>
       </c>
@@ -37971,17 +37971,17 @@
       <c r="B21" s="100">
         <v>15</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="172" t="s">
+      <c r="D21" s="177" t="s">
         <v>371</v>
       </c>
       <c r="E21" s="173"/>
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
-      <c r="I21" s="144"/>
+      <c r="I21" s="156"/>
       <c r="J21" s="100">
         <v>15</v>
       </c>
@@ -37993,13 +37993,13 @@
       <c r="B22" s="100">
         <v>16</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="174"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
       <c r="J22" s="100">
         <v>16</v>
       </c>
@@ -38011,16 +38011,16 @@
       <c r="B23" s="100">
         <v>17</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="172" t="s">
+      <c r="D23" s="177" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="102" t="s">
         <v>374</v>
       </c>
@@ -38035,12 +38035,12 @@
       <c r="B24" s="100">
         <v>18</v>
       </c>
-      <c r="C24" s="161"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="174"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="102" t="s">
         <v>375</v>
       </c>
@@ -38055,17 +38055,17 @@
       <c r="B25" s="100">
         <v>19</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="172" t="s">
+      <c r="D25" s="177" t="s">
         <v>371</v>
       </c>
       <c r="E25" s="173"/>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
-      <c r="I25" s="144"/>
+      <c r="I25" s="156"/>
       <c r="J25" s="100">
         <v>19</v>
       </c>
@@ -38077,13 +38077,13 @@
       <c r="B26" s="100">
         <v>20</v>
       </c>
-      <c r="C26" s="161"/>
+      <c r="C26" s="169"/>
       <c r="D26" s="174"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="100">
         <v>20</v>
       </c>
@@ -38098,20 +38098,20 @@
       <c r="C27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="162"/>
       <c r="J27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="163" t="s">
         <v>340</v>
       </c>
       <c r="B28" s="134"/>
@@ -38122,19 +38122,19 @@
       <c r="G28" s="134"/>
       <c r="H28" s="134"/>
       <c r="I28" s="134"/>
-      <c r="J28" s="152"/>
+      <c r="J28" s="164"/>
     </row>
     <row r="29" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39112,16 +39112,20 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:I8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I13"/>
@@ -39134,20 +39138,16 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D25:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:I8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -39173,53 +39173,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -39227,23 +39227,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -39264,10 +39264,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -39288,17 +39288,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -39313,13 +39313,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -39334,18 +39334,18 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="175" t="s">
         <v>346</v>
       </c>
       <c r="G9" s="134"/>
       <c r="H9" s="134"/>
-      <c r="I9" s="145"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="107" t="s">
         <v>380</v>
       </c>
@@ -39363,14 +39363,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="107" t="s">
         <v>382</v>
       </c>
@@ -39391,14 +39391,14 @@
       <c r="D11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -39413,7 +39413,7 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E12" s="110" t="s">
@@ -39422,14 +39422,14 @@
       <c r="F12" s="102" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="160" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="148" t="s">
+      <c r="H12" s="162"/>
+      <c r="I12" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="150"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -39444,19 +39444,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="148" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="148" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="160" t="s">
         <v>387</v>
       </c>
-      <c r="H13" s="150"/>
-      <c r="I13" s="148" t="s">
+      <c r="H13" s="162"/>
+      <c r="I13" s="160" t="s">
         <v>388</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -39471,19 +39471,19 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="148" t="s">
+      <c r="D14" s="168"/>
+      <c r="E14" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="148" t="s">
+      <c r="F14" s="162"/>
+      <c r="G14" s="160" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="150"/>
-      <c r="I14" s="148" t="s">
+      <c r="H14" s="162"/>
+      <c r="I14" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="J14" s="150"/>
+      <c r="J14" s="162"/>
       <c r="K14" s="100">
         <v>8</v>
       </c>
@@ -39498,15 +39498,15 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="172" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="177" t="s">
         <v>371</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="I15" s="173"/>
-      <c r="J15" s="144"/>
+      <c r="J15" s="156"/>
       <c r="K15" s="100">
         <v>9</v>
       </c>
@@ -39521,13 +39521,13 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="161"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="174"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -39542,7 +39542,7 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E17" s="176" t="s">
@@ -39551,7 +39551,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="144"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="102" t="s">
         <v>361</v>
       </c>
@@ -39569,12 +39569,12 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="161"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="174"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="102" t="s">
         <v>390</v>
       </c>
@@ -39592,7 +39592,7 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E19" s="176" t="s">
@@ -39602,7 +39602,7 @@
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="I19" s="173"/>
-      <c r="J19" s="144"/>
+      <c r="J19" s="156"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -39617,13 +39617,13 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="174"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -39638,7 +39638,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="167" t="s">
         <v>370</v>
       </c>
       <c r="E21" s="107" t="s">
@@ -39647,10 +39647,10 @@
       <c r="F21" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="160" t="s">
         <v>393</v>
       </c>
-      <c r="H21" s="150"/>
+      <c r="H21" s="162"/>
       <c r="I21" s="102" t="s">
         <v>394</v>
       </c>
@@ -39671,19 +39671,19 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="148" t="s">
+      <c r="D22" s="169"/>
+      <c r="E22" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="150"/>
-      <c r="G22" s="148" t="s">
+      <c r="F22" s="162"/>
+      <c r="G22" s="160" t="s">
         <v>396</v>
       </c>
-      <c r="H22" s="150"/>
-      <c r="I22" s="148" t="s">
+      <c r="H22" s="162"/>
+      <c r="I22" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="J22" s="150"/>
+      <c r="J22" s="162"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -39698,16 +39698,16 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
-      <c r="I23" s="144"/>
+      <c r="I23" s="156"/>
       <c r="J23" s="102" t="s">
         <v>374</v>
       </c>
@@ -39725,12 +39725,12 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="161"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="174"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="102" t="s">
         <v>375</v>
       </c>
@@ -39748,17 +39748,17 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="172" t="s">
+      <c r="E25" s="177" t="s">
         <v>371</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="I25" s="173"/>
-      <c r="J25" s="144"/>
+      <c r="J25" s="156"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -39773,13 +39773,13 @@
       <c r="C26" s="100">
         <v>20</v>
       </c>
-      <c r="D26" s="161"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="174"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
@@ -39797,45 +39797,45 @@
       <c r="D27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="175" t="s">
+      <c r="E27" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
     </row>
     <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40813,11 +40813,23 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="E25:J26"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A28:K29"/>
+    <mergeCell ref="E17:I18"/>
+    <mergeCell ref="E19:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E23:I24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A5:C5"/>
@@ -40834,23 +40846,11 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A28:K29"/>
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="E23:I24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:J26"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40877,53 +40877,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="140" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="158"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="180"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="181"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="153" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="142"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="149" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -40931,23 +40931,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="153" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -40968,10 +40968,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -40992,17 +40992,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="172" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="144"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -41017,13 +41017,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="161"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -41038,19 +41038,19 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="167" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="175" t="s">
         <v>346</v>
       </c>
       <c r="G9" s="134"/>
       <c r="H9" s="134"/>
       <c r="I9" s="134"/>
-      <c r="J9" s="145"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="100">
         <v>3</v>
       </c>
@@ -41065,15 +41065,15 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
@@ -41091,14 +41091,14 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="160" t="s">
         <v>401</v>
       </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -41113,17 +41113,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
+      <c r="D12" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="160" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="148" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="H12" s="150"/>
+      <c r="H12" s="162"/>
       <c r="I12" s="102" t="s">
         <v>403</v>
       </c>
@@ -41144,7 +41144,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="182" t="s">
         <v>405</v>
       </c>
@@ -41157,10 +41157,10 @@
       <c r="H13" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="J13" s="150"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -41175,8 +41175,8 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="147"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="159"/>
       <c r="F14" s="102" t="s">
         <v>385</v>
       </c>
@@ -41186,10 +41186,10 @@
       <c r="H14" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="I14" s="148" t="s">
+      <c r="I14" s="160" t="s">
         <v>411</v>
       </c>
-      <c r="J14" s="150"/>
+      <c r="J14" s="162"/>
       <c r="K14" s="100">
         <v>8</v>
       </c>
@@ -41204,17 +41204,17 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="177" t="s">
         <v>412</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="I15" s="173"/>
-      <c r="J15" s="144"/>
+      <c r="J15" s="156"/>
       <c r="K15" s="100">
         <v>9</v>
       </c>
@@ -41229,13 +41229,13 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="161"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="174"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -41250,7 +41250,7 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="167" t="s">
         <v>350</v>
       </c>
       <c r="E17" s="176" t="s">
@@ -41259,7 +41259,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="144"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="102" t="s">
         <v>413</v>
       </c>
@@ -41277,12 +41277,12 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="160"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="174"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
       <c r="J18" s="102" t="s">
         <v>414</v>
       </c>
@@ -41300,17 +41300,17 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="160"/>
+      <c r="D19" s="168"/>
       <c r="E19" s="107" t="s">
         <v>415</v>
       </c>
       <c r="F19" s="102" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="G19" s="160" t="s">
         <v>417</v>
       </c>
-      <c r="H19" s="150"/>
+      <c r="H19" s="162"/>
       <c r="I19" s="102" t="s">
         <v>418</v>
       </c>
@@ -41331,19 +41331,19 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="148" t="s">
+      <c r="D20" s="169"/>
+      <c r="E20" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="148" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="160" t="s">
         <v>420</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="148" t="s">
+      <c r="H20" s="162"/>
+      <c r="I20" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="150"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -41358,7 +41358,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="167" t="s">
         <v>363</v>
       </c>
       <c r="E21" s="176" t="s">
@@ -41368,7 +41368,7 @@
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
       <c r="I21" s="173"/>
-      <c r="J21" s="144"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -41383,13 +41383,13 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="174"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -41404,16 +41404,16 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="167" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="177" t="s">
         <v>373</v>
       </c>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
-      <c r="I23" s="144"/>
+      <c r="I23" s="156"/>
       <c r="J23" s="102" t="s">
         <v>421</v>
       </c>
@@ -41431,12 +41431,12 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="161"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="174"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
       <c r="J24" s="102" t="s">
         <v>375</v>
       </c>
@@ -41454,17 +41454,17 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="167" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="172" t="s">
+      <c r="E25" s="177" t="s">
         <v>422</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="I25" s="173"/>
-      <c r="J25" s="144"/>
+      <c r="J25" s="156"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -41479,13 +41479,13 @@
       <c r="C26" s="100">
         <v>20</v>
       </c>
-      <c r="D26" s="161"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="174"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
@@ -41503,45 +41503,45 @@
       <c r="D27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="175" t="s">
+      <c r="E27" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="181" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="158"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
     </row>
     <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42519,25 +42519,6 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="D12:D14"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="A28:K29"/>
     <mergeCell ref="D15:D16"/>
@@ -42554,6 +42535,25 @@
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="E23:I24"/>
     <mergeCell ref="E25:J26"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/ReadFromExcelFIle/ReadFromExcelFIle/Spring_Football_2023.xlsx
+++ b/ReadFromExcelFIle/ReadFromExcelFIle/Spring_Football_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsmith/Desktop/Whitworth_Stuff/Spring 2023/CS 472/whitworth-football/ReadFromExcelFIle/ReadFromExcelFIle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80E737-3B35-8146-A17E-FEC2861E11AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95985CC7-96C4-314D-BAAE-9C5F86760161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32380" windowHeight="19320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7154,35 +7154,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7200,9 +7176,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7214,28 +7196,46 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10067,72 +10067,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="181"/>
     </row>
     <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="88"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="142"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="152"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
       <c r="H4" s="90"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="152"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="92"/>
       <c r="D5" s="93"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -10150,10 +10150,10 @@
       <c r="E6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="96" t="s">
         <v>332</v>
       </c>
@@ -10171,17 +10171,17 @@
       <c r="B7" s="100">
         <v>1</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
-      <c r="I7" s="156"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="100">
         <v>1</v>
       </c>
@@ -10193,13 +10193,13 @@
       <c r="B8" s="100">
         <v>2</v>
       </c>
-      <c r="C8" s="169"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="174"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="100">
         <v>2</v>
       </c>
@@ -10211,13 +10211,13 @@
       <c r="B9" s="100">
         <v>3</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="178" t="s">
         <v>346</v>
       </c>
       <c r="F9" s="134"/>
@@ -10237,14 +10237,14 @@
       <c r="B10" s="100">
         <v>4</v>
       </c>
-      <c r="C10" s="169"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="107" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
       <c r="I10" s="102" t="s">
         <v>427</v>
       </c>
@@ -10262,13 +10262,13 @@
       <c r="C11" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="148" t="s">
         <v>429</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="102" t="s">
         <v>430</v>
       </c>
@@ -10283,17 +10283,17 @@
       <c r="B12" s="100">
         <v>6</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="148" t="s">
         <v>402</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="160" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="G12" s="162"/>
+      <c r="G12" s="150"/>
       <c r="H12" s="102" t="s">
         <v>432</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="B13" s="100">
         <v>7</v>
       </c>
-      <c r="C13" s="168"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="182" t="s">
         <v>434</v>
       </c>
@@ -10324,10 +10324,10 @@
       <c r="G13" s="102" t="s">
         <v>437</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="H13" s="148" t="s">
         <v>438</v>
       </c>
-      <c r="I13" s="162"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="100">
         <v>7</v>
       </c>
@@ -10339,19 +10339,19 @@
       <c r="B14" s="100">
         <v>8</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="102" t="s">
         <v>439</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="102" t="s">
         <v>440</v>
       </c>
-      <c r="H14" s="160" t="s">
+      <c r="H14" s="148" t="s">
         <v>441</v>
       </c>
-      <c r="I14" s="162"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="100">
         <v>8</v>
       </c>
@@ -10363,17 +10363,17 @@
       <c r="B15" s="100">
         <v>9</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="172" t="s">
         <v>412</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
-      <c r="I15" s="156"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="100">
         <v>9</v>
       </c>
@@ -10385,13 +10385,13 @@
       <c r="B16" s="100">
         <v>10</v>
       </c>
-      <c r="C16" s="169"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="174"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="159"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
       <c r="J16" s="100">
         <v>10</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="B17" s="100">
         <v>11</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="159" t="s">
         <v>350</v>
       </c>
       <c r="D17" s="176" t="s">
@@ -10412,7 +10412,7 @@
       <c r="E17" s="173"/>
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
-      <c r="H17" s="156"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="102" t="s">
         <v>442</v>
       </c>
@@ -10427,12 +10427,12 @@
       <c r="B18" s="100">
         <v>12</v>
       </c>
-      <c r="C18" s="168"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="174"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="183" t="s">
         <v>433</v>
       </c>
@@ -10447,21 +10447,21 @@
       <c r="B19" s="100">
         <v>13</v>
       </c>
-      <c r="C19" s="168"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="102" t="s">
         <v>443</v>
       </c>
       <c r="E19" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="148" t="s">
         <v>445</v>
       </c>
-      <c r="G19" s="162"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="I19" s="169"/>
+      <c r="I19" s="161"/>
       <c r="J19" s="100">
         <v>13</v>
       </c>
@@ -10473,19 +10473,19 @@
       <c r="B20" s="100">
         <v>14</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="160" t="s">
+      <c r="C20" s="161"/>
+      <c r="D20" s="148" t="s">
         <v>447</v>
       </c>
-      <c r="E20" s="162"/>
-      <c r="F20" s="160" t="s">
+      <c r="E20" s="150"/>
+      <c r="F20" s="148" t="s">
         <v>448</v>
       </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="160" t="s">
+      <c r="G20" s="150"/>
+      <c r="H20" s="148" t="s">
         <v>447</v>
       </c>
-      <c r="I20" s="162"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="100">
         <v>14</v>
       </c>
@@ -10497,7 +10497,7 @@
       <c r="B21" s="100">
         <v>15</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="159" t="s">
         <v>363</v>
       </c>
       <c r="D21" s="176" t="s">
@@ -10507,7 +10507,7 @@
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
-      <c r="I21" s="156"/>
+      <c r="I21" s="144"/>
       <c r="J21" s="100">
         <v>15</v>
       </c>
@@ -10519,13 +10519,13 @@
       <c r="B22" s="100">
         <v>16</v>
       </c>
-      <c r="C22" s="169"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="174"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
       <c r="J22" s="100">
         <v>16</v>
       </c>
@@ -10537,16 +10537,16 @@
       <c r="B23" s="100">
         <v>17</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="172" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
-      <c r="H23" s="156"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="102" t="s">
         <v>449</v>
       </c>
@@ -10561,12 +10561,12 @@
       <c r="B24" s="100">
         <v>18</v>
       </c>
-      <c r="C24" s="169"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="174"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="102" t="s">
         <v>375</v>
       </c>
@@ -10581,17 +10581,17 @@
       <c r="B25" s="100">
         <v>19</v>
       </c>
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="172" t="s">
         <v>422</v>
       </c>
       <c r="E25" s="173"/>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
-      <c r="I25" s="156"/>
+      <c r="I25" s="144"/>
       <c r="J25" s="100">
         <v>19</v>
       </c>
@@ -10603,13 +10603,13 @@
       <c r="B26" s="100">
         <v>20</v>
       </c>
-      <c r="C26" s="169"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="174"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
       <c r="J26" s="100">
         <v>20</v>
       </c>
@@ -10624,43 +10624,43 @@
       <c r="C27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="162"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
       <c r="J27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="142"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="165"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11638,17 +11638,16 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D25:I26"/>
-    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:I8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="D11:H11"/>
     <mergeCell ref="A28:J29"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
@@ -11665,16 +11664,17 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:I8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11700,53 +11700,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -11754,23 +11754,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -11794,7 +11794,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -11815,17 +11815,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -11840,13 +11840,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -11864,13 +11864,13 @@
       <c r="D9" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="148" t="s">
         <v>453</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="102" t="s">
         <v>353</v>
       </c>
@@ -11888,17 +11888,17 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="159" t="s">
         <v>454</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="172" t="s">
         <v>455</v>
       </c>
       <c r="F10" s="173"/>
       <c r="G10" s="173"/>
       <c r="H10" s="173"/>
       <c r="I10" s="173"/>
-      <c r="J10" s="156"/>
+      <c r="J10" s="144"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
@@ -11913,13 +11913,13 @@
       <c r="C11" s="100">
         <v>5</v>
       </c>
-      <c r="D11" s="168"/>
+      <c r="D11" s="160"/>
       <c r="E11" s="174"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -11934,17 +11934,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="162"/>
+      <c r="H12" s="150"/>
       <c r="I12" s="102" t="s">
         <v>457</v>
       </c>
@@ -11965,17 +11965,17 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="102" t="s">
         <v>437</v>
       </c>
       <c r="F13" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="160" t="s">
+      <c r="G13" s="148" t="s">
         <v>459</v>
       </c>
-      <c r="H13" s="162"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="102" t="s">
         <v>430</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="168"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="102" t="s">
         <v>460</v>
       </c>
@@ -12041,8 +12041,8 @@
       <c r="G15" s="184" t="s">
         <v>464</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="102" t="s">
         <v>380</v>
       </c>
@@ -12060,7 +12060,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E16" s="183" t="s">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
-      <c r="I16" s="156"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="102" t="s">
         <v>382</v>
       </c>
@@ -12089,12 +12089,12 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="174"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
       <c r="J17" s="102" t="s">
         <v>466</v>
       </c>
@@ -12118,11 +12118,11 @@
       <c r="E18" s="184" t="s">
         <v>467</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="162"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -12137,17 +12137,17 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="159" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="172" t="s">
         <v>469</v>
       </c>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="I19" s="173"/>
-      <c r="J19" s="156"/>
+      <c r="J19" s="144"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -12162,13 +12162,13 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="169"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="174"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -12186,45 +12186,45 @@
       <c r="D21" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="178" t="s">
+      <c r="E21" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="162"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="158"/>
     </row>
     <row r="23" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="165"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12232,7 +12232,7 @@
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="175"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="134"/>
       <c r="G29" s="134"/>
       <c r="H29" s="134"/>
@@ -12245,22 +12245,22 @@
       <c r="G30" s="134"/>
       <c r="H30" s="134"/>
       <c r="I30" s="134"/>
-      <c r="J30" s="175"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
-      <c r="G31" s="175"/>
+      <c r="G31" s="178"/>
       <c r="H31" s="134"/>
       <c r="I31" s="106"/>
       <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="175"/>
+      <c r="E32" s="178"/>
       <c r="F32" s="134"/>
-      <c r="G32" s="175"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="134"/>
-      <c r="I32" s="175"/>
+      <c r="I32" s="178"/>
       <c r="J32" s="134"/>
     </row>
     <row r="33" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12270,19 +12270,19 @@
     <row r="37" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="175"/>
+      <c r="E39" s="178"/>
       <c r="F39" s="134"/>
-      <c r="G39" s="175"/>
+      <c r="G39" s="178"/>
       <c r="H39" s="134"/>
       <c r="I39" s="106"/>
       <c r="J39" s="106"/>
     </row>
     <row r="40" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="175"/>
+      <c r="E40" s="178"/>
       <c r="F40" s="106"/>
-      <c r="G40" s="175"/>
+      <c r="G40" s="178"/>
       <c r="H40" s="106"/>
-      <c r="I40" s="175"/>
+      <c r="I40" s="178"/>
       <c r="J40" s="134"/>
     </row>
     <row r="41" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12290,7 +12290,7 @@
       <c r="F41" s="106"/>
       <c r="G41" s="134"/>
       <c r="H41" s="106"/>
-      <c r="I41" s="175"/>
+      <c r="I41" s="178"/>
       <c r="J41" s="134"/>
     </row>
     <row r="42" spans="5:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13248,6 +13248,36 @@
     <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:J11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:J20"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E29:I30"/>
     <mergeCell ref="J30:J31"/>
@@ -13256,36 +13286,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="A22:K23"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:J11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13311,53 +13311,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -13365,23 +13365,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -13402,10 +13402,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -13426,17 +13426,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -13451,13 +13451,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>472</v>
       </c>
@@ -13501,14 +13501,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>437</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>472</v>
       </c>
@@ -13529,13 +13529,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="102" t="s">
         <v>472</v>
       </c>
@@ -13553,17 +13553,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="162"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="186" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="159"/>
+      <c r="H12" s="147"/>
       <c r="I12" s="107" t="s">
         <v>474</v>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="110" t="s">
         <v>140</v>
       </c>
@@ -13617,7 +13617,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="159" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -13626,7 +13626,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="156"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="107" t="s">
         <v>472</v>
       </c>
@@ -13644,12 +13644,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="169"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
       <c r="J15" s="107" t="s">
         <v>472</v>
       </c>
@@ -13667,7 +13667,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -13677,7 +13677,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -13692,13 +13692,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -13713,17 +13713,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -13738,13 +13738,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="183" t="s">
@@ -13771,7 +13771,7 @@
       <c r="G20" s="186" t="s">
         <v>483</v>
       </c>
-      <c r="H20" s="159"/>
+      <c r="H20" s="147"/>
       <c r="I20" s="107" t="s">
         <v>484</v>
       </c>
@@ -13792,15 +13792,15 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="107" t="s">
         <v>486</v>
       </c>
       <c r="G21" s="186" t="s">
         <v>487</v>
       </c>
-      <c r="H21" s="159"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="107" t="s">
         <v>488</v>
       </c>
@@ -13821,16 +13821,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="156"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="107" t="s">
         <v>449</v>
       </c>
@@ -13848,12 +13848,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -13871,17 +13871,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="172" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -13896,13 +13896,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -13920,45 +13920,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14933,22 +14933,11 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:J25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="E12:F12"/>
@@ -14960,11 +14949,22 @@
     <mergeCell ref="F9:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -14990,53 +14990,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>491</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -15044,23 +15044,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -15081,10 +15081,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -15105,17 +15105,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -15130,13 +15130,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>492</v>
       </c>
@@ -15180,14 +15180,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>493</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>492</v>
       </c>
@@ -15208,13 +15208,13 @@
       <c r="D11" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
       <c r="J11" s="102" t="s">
         <v>495</v>
       </c>
@@ -15232,17 +15232,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -15257,19 +15257,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="160" t="s">
+      <c r="D13" s="160"/>
+      <c r="E13" s="148" t="s">
         <v>497</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="150"/>
+      <c r="G13" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="160" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="148" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -15284,7 +15284,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="159" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -15293,7 +15293,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="156"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="102" t="s">
         <v>498</v>
       </c>
@@ -15311,12 +15311,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="169"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
       <c r="J15" s="102" t="s">
         <v>499</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -15344,7 +15344,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -15359,13 +15359,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -15380,17 +15380,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -15405,13 +15405,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -15435,10 +15435,10 @@
       <c r="F20" s="102" t="s">
         <v>500</v>
       </c>
-      <c r="G20" s="160" t="s">
+      <c r="G20" s="148" t="s">
         <v>501</v>
       </c>
-      <c r="H20" s="162"/>
+      <c r="H20" s="150"/>
       <c r="I20" s="102" t="s">
         <v>350</v>
       </c>
@@ -15459,17 +15459,17 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="102" t="s">
         <v>502</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>503</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="148" t="s">
         <v>504</v>
       </c>
-      <c r="H21" s="162"/>
+      <c r="H21" s="150"/>
       <c r="I21" s="102" t="s">
         <v>350</v>
       </c>
@@ -15490,16 +15490,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="156"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -15517,12 +15517,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -15540,17 +15540,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="172" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -15565,13 +15565,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -15589,45 +15589,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16603,6 +16603,23 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="D12:D13"/>
@@ -16619,23 +16636,6 @@
     <mergeCell ref="E18:J19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="E24:J25"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16661,53 +16661,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -16715,23 +16715,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -16752,10 +16752,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -16776,17 +16776,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -16801,13 +16801,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>510</v>
       </c>
@@ -16851,14 +16851,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>511</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>510</v>
       </c>
@@ -16879,13 +16879,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>512</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="102" t="s">
         <v>390</v>
       </c>
@@ -16903,17 +16903,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -16928,15 +16928,15 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="160" t="s">
+      <c r="D13" s="160"/>
+      <c r="E13" s="148" t="s">
         <v>456</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="150"/>
+      <c r="G13" s="148" t="s">
         <v>513</v>
       </c>
-      <c r="H13" s="162"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="102" t="s">
         <v>514</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="159" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="102" t="s">
@@ -16966,10 +16966,10 @@
       <c r="F14" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="G14" s="160" t="s">
+      <c r="G14" s="148" t="s">
         <v>517</v>
       </c>
-      <c r="H14" s="162"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="102" t="s">
         <v>518</v>
       </c>
@@ -16990,18 +16990,18 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="169"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="112" t="s">
         <v>519</v>
       </c>
       <c r="F15" s="115" t="s">
         <v>520</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="115" t="s">
         <v>520</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="114" t="s">
@@ -17031,7 +17031,7 @@
       <c r="G16" s="184" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="162"/>
+      <c r="H16" s="150"/>
       <c r="I16" s="114" t="s">
         <v>522</v>
       </c>
@@ -17052,14 +17052,14 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="184" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="150"/>
       <c r="J17" s="102" t="s">
         <v>526</v>
       </c>
@@ -17077,17 +17077,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>527</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -17102,13 +17102,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -17123,7 +17123,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -17158,7 +17158,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="102" t="s">
         <v>532</v>
       </c>
@@ -17191,17 +17191,17 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>537</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="I22" s="173"/>
-      <c r="J22" s="156"/>
+      <c r="J22" s="144"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -17216,15 +17216,15 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="168"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="184" t="s">
         <v>538</v>
       </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
       <c r="K23" s="100">
         <v>17</v>
       </c>
@@ -17239,15 +17239,15 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="177" t="s">
+      <c r="D24" s="160"/>
+      <c r="E24" s="172" t="s">
         <v>539</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -17262,15 +17262,15 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -17288,45 +17288,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18301,6 +18301,29 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
@@ -18311,29 +18334,6 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -18359,53 +18359,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -18413,23 +18413,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -18450,10 +18450,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -18474,17 +18474,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -18499,13 +18499,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -18520,7 +18520,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>441</v>
       </c>
@@ -18549,14 +18549,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>543</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>510</v>
       </c>
@@ -18577,13 +18577,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>544</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
       <c r="J11" s="102" t="s">
         <v>510</v>
       </c>
@@ -18601,21 +18601,21 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="148" t="s">
         <v>513</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="160" t="s">
+      <c r="H12" s="150"/>
+      <c r="I12" s="148" t="s">
         <v>438</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -18630,7 +18630,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="102" t="s">
         <v>460</v>
       </c>
@@ -18643,10 +18643,10 @@
       <c r="H13" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="148" t="s">
         <v>359</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -18661,7 +18661,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="168"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="102" t="s">
         <v>532</v>
       </c>
@@ -18671,10 +18671,10 @@
       <c r="G14" s="102" t="s">
         <v>532</v>
       </c>
-      <c r="H14" s="160" t="s">
+      <c r="H14" s="148" t="s">
         <v>545</v>
       </c>
-      <c r="I14" s="162"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="102" t="s">
         <v>516</v>
       </c>
@@ -18695,13 +18695,13 @@
       <c r="D15" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="148" t="s">
         <v>360</v>
       </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="102" t="s">
         <v>350</v>
       </c>
@@ -18719,7 +18719,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -18729,7 +18729,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -18744,13 +18744,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -18765,17 +18765,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -18790,13 +18790,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="112" t="s">
@@ -18820,14 +18820,14 @@
       <c r="F20" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="G20" s="160" t="s">
+      <c r="G20" s="148" t="s">
         <v>547</v>
       </c>
-      <c r="H20" s="162"/>
-      <c r="I20" s="160" t="s">
+      <c r="H20" s="150"/>
+      <c r="I20" s="148" t="s">
         <v>548</v>
       </c>
-      <c r="J20" s="162"/>
+      <c r="J20" s="150"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -18842,21 +18842,21 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="112" t="s">
         <v>549</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="148" t="s">
         <v>550</v>
       </c>
-      <c r="H21" s="162"/>
-      <c r="I21" s="160" t="s">
+      <c r="H21" s="150"/>
+      <c r="I21" s="148" t="s">
         <v>548</v>
       </c>
-      <c r="J21" s="162"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -18871,16 +18871,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="156"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -18898,12 +18898,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -18921,17 +18921,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="172" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -18946,13 +18946,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -18970,45 +18970,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19984,6 +19984,25 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E22:I23"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:J25"/>
     <mergeCell ref="E26:J26"/>
@@ -20000,25 +20019,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20044,53 +20044,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -20098,23 +20098,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -20135,10 +20135,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -20159,17 +20159,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -20184,13 +20184,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -20205,7 +20205,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>553</v>
       </c>
@@ -20234,14 +20234,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>554</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>555</v>
       </c>
@@ -20262,13 +20262,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
       <c r="J11" s="102" t="s">
         <v>557</v>
       </c>
@@ -20286,21 +20286,21 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>558</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="160" t="s">
+      <c r="H12" s="150"/>
+      <c r="I12" s="148" t="s">
         <v>559</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -20315,7 +20315,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="102" t="s">
         <v>560</v>
       </c>
@@ -20328,10 +20328,10 @@
       <c r="H13" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="148" t="s">
         <v>563</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="159" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="176" t="s">
@@ -20355,7 +20355,7 @@
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="156"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="102" t="s">
         <v>390</v>
       </c>
@@ -20373,12 +20373,12 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="168"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="174"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
       <c r="J15" s="102" t="s">
         <v>564</v>
       </c>
@@ -20396,7 +20396,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="176" t="s">
@@ -20406,7 +20406,7 @@
       <c r="G16" s="173"/>
       <c r="H16" s="173"/>
       <c r="I16" s="173"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -20421,13 +20421,13 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="174"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="100">
         <v>11</v>
       </c>
@@ -20442,17 +20442,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>412</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -20467,13 +20467,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -20503,10 +20503,10 @@
       <c r="H20" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="148" t="s">
         <v>438</v>
       </c>
-      <c r="J20" s="162"/>
+      <c r="J20" s="150"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -20521,21 +20521,21 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="102" t="s">
         <v>568</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="148" t="s">
         <v>570</v>
       </c>
-      <c r="H21" s="162"/>
-      <c r="I21" s="160" t="s">
+      <c r="H21" s="150"/>
+      <c r="I21" s="148" t="s">
         <v>571</v>
       </c>
-      <c r="J21" s="162"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -20550,16 +20550,16 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
-      <c r="I22" s="156"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="102" t="s">
         <v>506</v>
       </c>
@@ -20577,12 +20577,12 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="169"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="174"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="159"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
       <c r="J23" s="102" t="s">
         <v>375</v>
       </c>
@@ -20600,17 +20600,17 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="167" t="s">
+      <c r="D24" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="172" t="s">
         <v>422</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -20625,13 +20625,13 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="174"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -20649,45 +20649,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21663,6 +21663,24 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:J25"/>
     <mergeCell ref="E26:J26"/>
@@ -21679,24 +21697,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:I23"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21722,53 +21722,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -21776,23 +21776,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -21813,10 +21813,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -21837,17 +21837,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -21862,13 +21862,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -21883,7 +21883,7 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="102" t="s">
@@ -21894,7 +21894,7 @@
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="156"/>
+      <c r="I9" s="144"/>
       <c r="J9" s="102" t="s">
         <v>574</v>
       </c>
@@ -21912,14 +21912,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="102" t="s">
         <v>575</v>
       </c>
       <c r="F10" s="174"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="102" t="s">
         <v>576</v>
       </c>
@@ -21940,13 +21940,13 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>577</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="102" t="s">
         <v>578</v>
       </c>
@@ -21964,16 +21964,16 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
       <c r="J12" s="102" t="s">
         <v>579</v>
       </c>
@@ -21991,19 +21991,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="160" t="s">
+      <c r="D13" s="160"/>
+      <c r="E13" s="148" t="s">
         <v>456</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="150"/>
+      <c r="G13" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="160" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="148" t="s">
         <v>580</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -22018,7 +22018,7 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="159" t="s">
         <v>479</v>
       </c>
       <c r="E14" s="102" t="s">
@@ -22027,10 +22027,10 @@
       <c r="F14" s="112" t="s">
         <v>516</v>
       </c>
-      <c r="G14" s="160" t="s">
+      <c r="G14" s="148" t="s">
         <v>581</v>
       </c>
-      <c r="H14" s="162"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="102" t="s">
         <v>350</v>
       </c>
@@ -22051,16 +22051,16 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="177" t="s">
+      <c r="D15" s="161"/>
+      <c r="E15" s="172" t="s">
         <v>520</v>
       </c>
-      <c r="F15" s="156"/>
-      <c r="G15" s="160" t="s">
+      <c r="F15" s="144"/>
+      <c r="G15" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="115" t="s">
         <v>520</v>
       </c>
@@ -22078,7 +22078,7 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="167" t="s">
+      <c r="D16" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="114" t="s">
@@ -22090,8 +22090,8 @@
       <c r="G16" s="184" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="102" t="s">
         <v>506</v>
       </c>
@@ -22109,14 +22109,14 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="184" t="s">
         <v>525</v>
       </c>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="150"/>
       <c r="J17" s="102" t="s">
         <v>375</v>
       </c>
@@ -22134,17 +22134,17 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="172" t="s">
         <v>527</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="173"/>
-      <c r="J18" s="156"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="100">
         <v>12</v>
       </c>
@@ -22159,13 +22159,13 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="174"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -22180,7 +22180,7 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E20" s="102" t="s">
@@ -22195,10 +22195,10 @@
       <c r="H20" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="148" t="s">
         <v>430</v>
       </c>
-      <c r="J20" s="162"/>
+      <c r="J20" s="150"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -22213,7 +22213,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="168"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="102" t="s">
         <v>585</v>
       </c>
@@ -22226,10 +22226,10 @@
       <c r="H21" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="I21" s="160" t="s">
+      <c r="I21" s="148" t="s">
         <v>359</v>
       </c>
-      <c r="J21" s="162"/>
+      <c r="J21" s="150"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -22244,17 +22244,17 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="159" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="172" t="s">
         <v>537</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="I22" s="173"/>
-      <c r="J22" s="156"/>
+      <c r="J22" s="144"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -22269,15 +22269,15 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="168"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="184" t="s">
         <v>538</v>
       </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
       <c r="K23" s="100">
         <v>17</v>
       </c>
@@ -22292,15 +22292,15 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="177" t="s">
+      <c r="D24" s="160"/>
+      <c r="E24" s="172" t="s">
         <v>539</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="173"/>
-      <c r="J24" s="156"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="100">
         <v>18</v>
       </c>
@@ -22315,15 +22315,15 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="184" t="s">
         <v>540</v>
       </c>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -22341,45 +22341,45 @@
       <c r="D26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="178" t="s">
+      <c r="E26" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="165"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23355,6 +23355,27 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="E17:I17"/>
@@ -23371,27 +23392,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -23414,53 +23414,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -23468,23 +23468,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -23508,7 +23508,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -23535,11 +23535,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -23555,12 +23555,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -23902,32 +23902,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="165"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24938,53 +24938,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>590</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -24992,23 +24992,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -25032,7 +25032,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -25059,11 +25059,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -25079,12 +25079,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -25426,32 +25426,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="165"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26454,8 +26454,8 @@
   </sheetPr>
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28181,53 +28181,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>591</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>592</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -28235,23 +28235,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -28275,7 +28275,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -28302,11 +28302,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -28322,12 +28322,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -28669,32 +28669,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="165"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29705,53 +29705,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>594</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -29759,23 +29759,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -29799,7 +29799,7 @@
       <c r="G6" s="185" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="152"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="109" t="s">
         <v>332</v>
       </c>
@@ -29826,11 +29826,11 @@
       <c r="E7" s="189" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
@@ -29846,12 +29846,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="188"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="118">
         <v>2</v>
       </c>
@@ -30193,32 +30193,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="165"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31221,8 +31221,8 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33033,7 +33033,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34689,7 +34689,9 @@
   </sheetPr>
   <dimension ref="A1:Z976"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -36273,7 +36275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -36284,26 +36288,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -36314,25 +36318,25 @@
       <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="147"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -36340,23 +36344,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
@@ -36377,10 +36381,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -36401,23 +36405,23 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="171" t="s">
+      <c r="F7" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="143" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="171" t="s">
+      <c r="H7" s="144"/>
+      <c r="I7" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="163" t="s">
         <v>336</v>
       </c>
       <c r="K7" s="100">
@@ -36434,13 +36438,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="159"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="134"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -36455,13 +36459,13 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="158"/>
-      <c r="H9" s="159"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
       <c r="I9" s="102" t="s">
         <v>335</v>
       </c>
@@ -36485,20 +36489,20 @@
       <c r="D10" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="148" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="151" t="s">
         <v>340</v>
       </c>
       <c r="B11" s="134"/>
@@ -36510,20 +36514,20 @@
       <c r="H11" s="134"/>
       <c r="I11" s="134"/>
       <c r="J11" s="134"/>
-      <c r="K11" s="164"/>
+      <c r="K11" s="152"/>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="165"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37501,6 +37505,12 @@
     <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="E10:J10"/>
@@ -37512,12 +37522,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -37532,7 +37536,9 @@
   </sheetPr>
   <dimension ref="A1:J1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -37543,24 +37549,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="144"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -37571,18 +37577,18 @@
       <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="168" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="147"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="88"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="147"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="155"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105" t="s">
@@ -37595,22 +37601,22 @@
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
       <c r="H4" s="90"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="152"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="92"/>
       <c r="D5" s="93"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="95" t="s">
@@ -37628,10 +37634,10 @@
       <c r="E6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="96" t="s">
         <v>332</v>
       </c>
@@ -37649,17 +37655,17 @@
       <c r="B7" s="100">
         <v>1</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
-      <c r="I7" s="156"/>
+      <c r="I7" s="144"/>
       <c r="J7" s="100">
         <v>1</v>
       </c>
@@ -37671,13 +37677,13 @@
       <c r="B8" s="100">
         <v>2</v>
       </c>
-      <c r="C8" s="169"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="174"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="100">
         <v>2</v>
       </c>
@@ -37689,18 +37695,18 @@
       <c r="B9" s="100">
         <v>3</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="178" t="s">
         <v>346</v>
       </c>
       <c r="F9" s="134"/>
       <c r="G9" s="134"/>
-      <c r="H9" s="157"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="107" t="s">
         <v>348</v>
       </c>
@@ -37715,14 +37721,14 @@
       <c r="B10" s="100">
         <v>4</v>
       </c>
-      <c r="C10" s="169"/>
+      <c r="C10" s="161"/>
       <c r="D10" s="107" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
       <c r="I10" s="107" t="s">
         <v>348</v>
       </c>
@@ -37740,14 +37746,14 @@
       <c r="C11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="100">
         <v>5</v>
       </c>
@@ -37759,21 +37765,21 @@
       <c r="B12" s="100">
         <v>6</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="148" t="s">
         <v>351</v>
       </c>
-      <c r="E12" s="162"/>
-      <c r="F12" s="160" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="148" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="162"/>
+      <c r="G12" s="150"/>
       <c r="H12" s="176" t="s">
         <v>353</v>
       </c>
-      <c r="I12" s="156"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="100">
         <v>6</v>
       </c>
@@ -37785,19 +37791,19 @@
       <c r="B13" s="100">
         <v>7</v>
       </c>
-      <c r="C13" s="168"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="102" t="s">
         <v>354</v>
       </c>
       <c r="E13" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F13" s="148" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="162"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="174"/>
-      <c r="I13" s="159"/>
+      <c r="I13" s="147"/>
       <c r="J13" s="100">
         <v>7</v>
       </c>
@@ -37809,21 +37815,21 @@
       <c r="B14" s="100">
         <v>8</v>
       </c>
-      <c r="C14" s="168"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="102" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="148" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="160" t="s">
+      <c r="G14" s="150"/>
+      <c r="H14" s="148" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="162"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="100">
         <v>8</v>
       </c>
@@ -37835,14 +37841,14 @@
       <c r="B15" s="100">
         <v>9</v>
       </c>
-      <c r="C15" s="168"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="176" t="s">
         <v>360</v>
       </c>
       <c r="E15" s="173"/>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
-      <c r="H15" s="156"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="102" t="s">
         <v>361</v>
       </c>
@@ -37857,12 +37863,12 @@
       <c r="B16" s="100">
         <v>10</v>
       </c>
-      <c r="C16" s="169"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="174"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
       <c r="I16" s="102" t="s">
         <v>362</v>
       </c>
@@ -37877,7 +37883,7 @@
       <c r="B17" s="100">
         <v>11</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="159" t="s">
         <v>363</v>
       </c>
       <c r="D17" s="176" t="s">
@@ -37887,7 +37893,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="156"/>
+      <c r="I17" s="144"/>
       <c r="J17" s="100">
         <v>11</v>
       </c>
@@ -37899,13 +37905,13 @@
       <c r="B18" s="100">
         <v>12</v>
       </c>
-      <c r="C18" s="169"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="174"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
       <c r="J18" s="100">
         <v>12</v>
       </c>
@@ -37917,7 +37923,7 @@
       <c r="B19" s="100">
         <v>13</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="159" t="s">
         <v>350</v>
       </c>
       <c r="D19" s="102" t="s">
@@ -37926,10 +37932,10 @@
       <c r="E19" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="148" t="s">
         <v>367</v>
       </c>
-      <c r="G19" s="162"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="102" t="s">
         <v>94</v>
       </c>
@@ -37947,19 +37953,19 @@
       <c r="B20" s="100">
         <v>14</v>
       </c>
-      <c r="C20" s="169"/>
-      <c r="D20" s="160" t="s">
+      <c r="C20" s="161"/>
+      <c r="D20" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="E20" s="162"/>
-      <c r="F20" s="160" t="s">
+      <c r="E20" s="150"/>
+      <c r="F20" s="148" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="160" t="s">
+      <c r="G20" s="150"/>
+      <c r="H20" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="I20" s="162"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="100">
         <v>14</v>
       </c>
@@ -37971,17 +37977,17 @@
       <c r="B21" s="100">
         <v>15</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="172" t="s">
         <v>371</v>
       </c>
       <c r="E21" s="173"/>
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
-      <c r="I21" s="156"/>
+      <c r="I21" s="144"/>
       <c r="J21" s="100">
         <v>15</v>
       </c>
@@ -37993,13 +37999,13 @@
       <c r="B22" s="100">
         <v>16</v>
       </c>
-      <c r="C22" s="169"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="174"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="159"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
       <c r="J22" s="100">
         <v>16</v>
       </c>
@@ -38011,16 +38017,16 @@
       <c r="B23" s="100">
         <v>17</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="172" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="173"/>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
-      <c r="H23" s="156"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="102" t="s">
         <v>374</v>
       </c>
@@ -38035,12 +38041,12 @@
       <c r="B24" s="100">
         <v>18</v>
       </c>
-      <c r="C24" s="169"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="174"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="102" t="s">
         <v>375</v>
       </c>
@@ -38055,17 +38061,17 @@
       <c r="B25" s="100">
         <v>19</v>
       </c>
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="172" t="s">
         <v>371</v>
       </c>
       <c r="E25" s="173"/>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
-      <c r="I25" s="156"/>
+      <c r="I25" s="144"/>
       <c r="J25" s="100">
         <v>19</v>
       </c>
@@ -38077,13 +38083,13 @@
       <c r="B26" s="100">
         <v>20</v>
       </c>
-      <c r="C26" s="169"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="174"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
       <c r="J26" s="100">
         <v>20</v>
       </c>
@@ -38098,20 +38104,20 @@
       <c r="C27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="162"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
       <c r="J27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="151" t="s">
         <v>340</v>
       </c>
       <c r="B28" s="134"/>
@@ -38122,19 +38128,19 @@
       <c r="G28" s="134"/>
       <c r="H28" s="134"/>
       <c r="I28" s="134"/>
-      <c r="J28" s="164"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="29" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="165"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39112,20 +39118,16 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D21:I22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D25:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:I8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="D11:I11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I13"/>
@@ -39138,16 +39140,20 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:I8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D21:I22"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -39162,7 +39168,9 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -39173,53 +39181,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -39227,23 +39235,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -39264,10 +39272,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -39288,17 +39296,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -39313,13 +39321,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -39334,18 +39342,18 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="F9" s="178" t="s">
         <v>346</v>
       </c>
       <c r="G9" s="134"/>
       <c r="H9" s="134"/>
-      <c r="I9" s="157"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="107" t="s">
         <v>380</v>
       </c>
@@ -39363,14 +39371,14 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="107" t="s">
         <v>382</v>
       </c>
@@ -39391,14 +39399,14 @@
       <c r="D11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -39413,7 +39421,7 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E12" s="110" t="s">
@@ -39422,14 +39430,14 @@
       <c r="F12" s="102" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="160" t="s">
+      <c r="G12" s="148" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="160" t="s">
+      <c r="H12" s="150"/>
+      <c r="I12" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="100">
         <v>6</v>
       </c>
@@ -39444,19 +39452,19 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="160" t="s">
+      <c r="D13" s="160"/>
+      <c r="E13" s="148" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="160" t="s">
+      <c r="F13" s="150"/>
+      <c r="G13" s="148" t="s">
         <v>387</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="160" t="s">
+      <c r="H13" s="150"/>
+      <c r="I13" s="148" t="s">
         <v>388</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -39471,19 +39479,19 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="160" t="s">
+      <c r="D14" s="160"/>
+      <c r="E14" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="160" t="s">
+      <c r="F14" s="150"/>
+      <c r="G14" s="148" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="160" t="s">
+      <c r="H14" s="150"/>
+      <c r="I14" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="J14" s="162"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="100">
         <v>8</v>
       </c>
@@ -39498,15 +39506,15 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="177" t="s">
+      <c r="D15" s="160"/>
+      <c r="E15" s="172" t="s">
         <v>371</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="I15" s="173"/>
-      <c r="J15" s="156"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="100">
         <v>9</v>
       </c>
@@ -39521,13 +39529,13 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="169"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="174"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -39542,7 +39550,7 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E17" s="176" t="s">
@@ -39551,7 +39559,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="156"/>
+      <c r="I17" s="144"/>
       <c r="J17" s="102" t="s">
         <v>361</v>
       </c>
@@ -39569,12 +39577,12 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="169"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="174"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
       <c r="J18" s="102" t="s">
         <v>390</v>
       </c>
@@ -39592,7 +39600,7 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E19" s="176" t="s">
@@ -39602,7 +39610,7 @@
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="I19" s="173"/>
-      <c r="J19" s="156"/>
+      <c r="J19" s="144"/>
       <c r="K19" s="100">
         <v>13</v>
       </c>
@@ -39617,13 +39625,13 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="169"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="174"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -39638,7 +39646,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="159" t="s">
         <v>370</v>
       </c>
       <c r="E21" s="107" t="s">
@@ -39647,10 +39655,10 @@
       <c r="F21" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="160" t="s">
+      <c r="G21" s="148" t="s">
         <v>393</v>
       </c>
-      <c r="H21" s="162"/>
+      <c r="H21" s="150"/>
       <c r="I21" s="102" t="s">
         <v>394</v>
       </c>
@@ -39671,19 +39679,19 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="160" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="160" t="s">
+      <c r="F22" s="150"/>
+      <c r="G22" s="148" t="s">
         <v>396</v>
       </c>
-      <c r="H22" s="162"/>
-      <c r="I22" s="160" t="s">
+      <c r="H22" s="150"/>
+      <c r="I22" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="J22" s="162"/>
+      <c r="J22" s="150"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -39698,16 +39706,16 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
-      <c r="I23" s="156"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="102" t="s">
         <v>374</v>
       </c>
@@ -39725,12 +39733,12 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="169"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="174"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
       <c r="J24" s="102" t="s">
         <v>375</v>
       </c>
@@ -39748,17 +39756,17 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="172" t="s">
         <v>371</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="I25" s="173"/>
-      <c r="J25" s="156"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -39773,13 +39781,13 @@
       <c r="C26" s="100">
         <v>20</v>
       </c>
-      <c r="D26" s="169"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="174"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
@@ -39797,45 +39805,45 @@
       <c r="D27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="178" t="s">
+      <c r="E27" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
       <c r="K27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="158"/>
     </row>
     <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="165"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40813,23 +40821,11 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E25:J26"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A28:K29"/>
-    <mergeCell ref="E17:I18"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="E23:I24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A5:C5"/>
@@ -40846,11 +40842,23 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A28:K29"/>
+    <mergeCell ref="E17:I18"/>
+    <mergeCell ref="E19:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E23:I24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:J26"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="E27:J27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40866,7 +40874,9 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -40877,53 +40887,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="179"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="180"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="142"/>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
       <c r="I3" s="90"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="170" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="91"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
@@ -40931,23 +40941,23 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="90"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="152"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="142"/>
     </row>
     <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
       <c r="D5" s="92"/>
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="152"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="108" t="s">
@@ -40968,10 +40978,10 @@
       <c r="F6" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="157" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="142"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="96" t="s">
         <v>332</v>
       </c>
@@ -40992,17 +41002,17 @@
       <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="177" t="s">
         <v>345</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
-      <c r="J7" s="156"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="100">
         <v>1</v>
       </c>
@@ -41017,13 +41027,13 @@
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="174"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="100">
         <v>2</v>
       </c>
@@ -41038,19 +41048,19 @@
       <c r="C9" s="100">
         <v>3</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="159" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="F9" s="178" t="s">
         <v>346</v>
       </c>
       <c r="G9" s="134"/>
       <c r="H9" s="134"/>
       <c r="I9" s="134"/>
-      <c r="J9" s="157"/>
+      <c r="J9" s="145"/>
       <c r="K9" s="100">
         <v>3</v>
       </c>
@@ -41065,15 +41075,15 @@
       <c r="C10" s="100">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="100">
         <v>4</v>
       </c>
@@ -41091,14 +41101,14 @@
       <c r="D11" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="148" t="s">
         <v>401</v>
       </c>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="100">
         <v>5</v>
       </c>
@@ -41113,17 +41123,17 @@
       <c r="C12" s="100">
         <v>6</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="159" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="148" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="150"/>
+      <c r="G12" s="148" t="s">
         <v>352</v>
       </c>
-      <c r="H12" s="162"/>
+      <c r="H12" s="150"/>
       <c r="I12" s="102" t="s">
         <v>403</v>
       </c>
@@ -41144,7 +41154,7 @@
       <c r="C13" s="100">
         <v>7</v>
       </c>
-      <c r="D13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="182" t="s">
         <v>405</v>
       </c>
@@ -41157,10 +41167,10 @@
       <c r="H13" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="148" t="s">
         <v>353</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="100">
         <v>7</v>
       </c>
@@ -41175,8 +41185,8 @@
       <c r="C14" s="100">
         <v>8</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="102" t="s">
         <v>385</v>
       </c>
@@ -41186,10 +41196,10 @@
       <c r="H14" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="J14" s="162"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="100">
         <v>8</v>
       </c>
@@ -41204,17 +41214,17 @@
       <c r="C15" s="100">
         <v>9</v>
       </c>
-      <c r="D15" s="167" t="s">
+      <c r="D15" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="172" t="s">
         <v>412</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="I15" s="173"/>
-      <c r="J15" s="156"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="100">
         <v>9</v>
       </c>
@@ -41229,13 +41239,13 @@
       <c r="C16" s="100">
         <v>10</v>
       </c>
-      <c r="D16" s="169"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="174"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="100">
         <v>10</v>
       </c>
@@ -41250,7 +41260,7 @@
       <c r="C17" s="100">
         <v>11</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="159" t="s">
         <v>350</v>
       </c>
       <c r="E17" s="176" t="s">
@@ -41259,7 +41269,7 @@
       <c r="F17" s="173"/>
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="156"/>
+      <c r="I17" s="144"/>
       <c r="J17" s="102" t="s">
         <v>413</v>
       </c>
@@ -41277,12 +41287,12 @@
       <c r="C18" s="100">
         <v>12</v>
       </c>
-      <c r="D18" s="168"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="174"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
       <c r="J18" s="102" t="s">
         <v>414</v>
       </c>
@@ -41300,17 +41310,17 @@
       <c r="C19" s="100">
         <v>13</v>
       </c>
-      <c r="D19" s="168"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="107" t="s">
         <v>415</v>
       </c>
       <c r="F19" s="102" t="s">
         <v>416</v>
       </c>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="148" t="s">
         <v>417</v>
       </c>
-      <c r="H19" s="162"/>
+      <c r="H19" s="150"/>
       <c r="I19" s="102" t="s">
         <v>418</v>
       </c>
@@ -41331,19 +41341,19 @@
       <c r="C20" s="100">
         <v>14</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="160" t="s">
+      <c r="D20" s="161"/>
+      <c r="E20" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="160" t="s">
+      <c r="F20" s="150"/>
+      <c r="G20" s="148" t="s">
         <v>420</v>
       </c>
-      <c r="H20" s="162"/>
-      <c r="I20" s="160" t="s">
+      <c r="H20" s="150"/>
+      <c r="I20" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="162"/>
+      <c r="J20" s="150"/>
       <c r="K20" s="100">
         <v>14</v>
       </c>
@@ -41358,7 +41368,7 @@
       <c r="C21" s="100">
         <v>15</v>
       </c>
-      <c r="D21" s="167" t="s">
+      <c r="D21" s="159" t="s">
         <v>363</v>
       </c>
       <c r="E21" s="176" t="s">
@@ -41368,7 +41378,7 @@
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
       <c r="I21" s="173"/>
-      <c r="J21" s="156"/>
+      <c r="J21" s="144"/>
       <c r="K21" s="100">
         <v>15</v>
       </c>
@@ -41383,13 +41393,13 @@
       <c r="C22" s="100">
         <v>16</v>
       </c>
-      <c r="D22" s="169"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="174"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
       <c r="K22" s="100">
         <v>16</v>
       </c>
@@ -41404,16 +41414,16 @@
       <c r="C23" s="100">
         <v>17</v>
       </c>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="172" t="s">
         <v>373</v>
       </c>
       <c r="F23" s="173"/>
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
-      <c r="I23" s="156"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="102" t="s">
         <v>421</v>
       </c>
@@ -41431,12 +41441,12 @@
       <c r="C24" s="100">
         <v>18</v>
       </c>
-      <c r="D24" s="169"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="174"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="159"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
       <c r="J24" s="102" t="s">
         <v>375</v>
       </c>
@@ -41454,17 +41464,17 @@
       <c r="C25" s="100">
         <v>19</v>
       </c>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="159" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="172" t="s">
         <v>422</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="I25" s="173"/>
-      <c r="J25" s="156"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="100">
         <v>19</v>
       </c>
@@ -41479,13 +41489,13 @@
       <c r="C26" s="100">
         <v>20</v>
       </c>
-      <c r="D26" s="169"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="174"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
       <c r="K26" s="100">
         <v>20</v>
       </c>
@@ -41503,45 +41513,45 @@
       <c r="D27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="178" t="s">
+      <c r="E27" s="175" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
       <c r="K27" s="100">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="158"/>
     </row>
     <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="165"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42519,6 +42529,25 @@
     <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="A28:K29"/>
     <mergeCell ref="D15:D16"/>
@@ -42535,25 +42564,6 @@
     <mergeCell ref="E21:J22"/>
     <mergeCell ref="E23:I24"/>
     <mergeCell ref="E25:J26"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
